--- a/xlsx/country_comparison/foreign_aid_no_less_all_positive.xlsx
+++ b/xlsx/country_comparison/foreign_aid_no_less_all_positive.xlsx
@@ -404,7 +404,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.704940375371533</v>
+        <v>0.704940375280785</v>
       </c>
       <c r="C2" t="n">
         <v>0.748969192851456</v>
@@ -427,7 +427,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.47479364417158</v>
+        <v>0.474793644184466</v>
       </c>
       <c r="C3" t="n">
         <v>0.589837119485913</v>
@@ -450,7 +450,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.567003401046065</v>
+        <v>0.567003400895416</v>
       </c>
       <c r="C4" t="n">
         <v>0.743709725807994</v>
@@ -473,7 +473,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.365019334589637</v>
+        <v>0.365019334499854</v>
       </c>
       <c r="C5" t="n">
         <v>0.533701101345921</v>
